--- a/作文.xlsx
+++ b/作文.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\德语\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573A90D0-4112-4FAB-B11A-79AC49D29DF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D85ACE-212D-49B0-8899-7D9B7D2DBCD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="187">
   <si>
     <t>ZH</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -485,51 +485,367 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>außerdem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>darüber hinaus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daneben</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obendrein</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>überdies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unter anderem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nicht zuletzt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ferner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weiterhin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除此之外的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除此之外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ansonsten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此外，而且</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zugleich / gleichzeitig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>多种多样的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>außerdem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>darüber hinaus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ansonsten</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>daneben</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>obendrein</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>überdies</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unter anderem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nicht zuletzt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zugleich</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ferner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weiterhin</t>
+    <t>viele</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>etliche</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>einige</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mehrer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zahlreich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zahllos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vielfältig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>divers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verschieden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unterschiedlich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vielerlei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相当多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数不尽的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若干的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allelei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种各样的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当然的，显而易见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offenbar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selbsverständlich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>natürlich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freilich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sicherlich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selbstredend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显而易见的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不言而喻的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当然，自然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定地，当然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接下来，然后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dannach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hernach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anschließend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hinterher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nachträglich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woraufhin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>später</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>darauffolgend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以后，后来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随后，紧接着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事后，后来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后，之后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧接着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alsdann</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一个，紧接着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sodann</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sehr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extrem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insbesondere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>besonders</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>äußerst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ausgesucht</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empfindlich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unvergleichlich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ausgesprochen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ungewönlich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>außergewönlich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>außerordentlich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不寻常的，特别unusual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extraodinary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特别的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尤其</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极其，非常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很，非常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无比的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gegen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,7 +853,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,8 +888,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -598,6 +921,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -611,17 +952,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -631,7 +973,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -912,17 +1258,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="1" customWidth="1"/>
-    <col min="3" max="3" width="59.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="56.109375" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -938,40 +1284,40 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
@@ -980,7 +1326,7 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
@@ -989,44 +1335,44 @@
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="4"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="4"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="4"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="4"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
@@ -1037,7 +1383,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1045,55 +1391,55 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="8"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="8"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="8"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B18" s="8"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="8"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B20" s="8"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B21" s="8"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B22" s="8"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1101,61 +1447,61 @@
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B24" s="9"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B25" s="9"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B26" s="9"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B27" s="9"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B28" s="9"/>
+      <c r="B28" s="10"/>
       <c r="C28" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B29" s="9"/>
+      <c r="B29" s="10"/>
       <c r="C29" s="1" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B30" s="9"/>
+      <c r="B30" s="10"/>
       <c r="C30" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B31" s="9"/>
+      <c r="B31" s="10"/>
       <c r="C31" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B32" s="9"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B33" s="9"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="1" t="s">
         <v>43</v>
       </c>
@@ -1169,7 +1515,7 @@
       </c>
     </row>
     <row r="35" spans="2:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1177,61 +1523,61 @@
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B36" s="9"/>
+      <c r="B36" s="10"/>
       <c r="C36" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B37" s="10"/>
+      <c r="C37" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B37" s="9"/>
-      <c r="C37" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B38" s="9"/>
+      <c r="B38" s="10"/>
       <c r="C38" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B39" s="9"/>
+      <c r="B39" s="10"/>
       <c r="C39" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B40" s="9"/>
+      <c r="B40" s="10"/>
       <c r="C40" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B41" s="9"/>
+      <c r="B41" s="10"/>
       <c r="C41" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B42" s="9"/>
+      <c r="B42" s="10"/>
       <c r="C42" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B43" s="9"/>
+      <c r="B43" s="10"/>
       <c r="C43" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B44" s="9"/>
+      <c r="B44" s="10"/>
       <c r="C44" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B45" s="9"/>
+      <c r="B45" s="10"/>
       <c r="C45" s="1" t="s">
         <v>57</v>
       </c>
@@ -1253,7 +1599,7 @@
       </c>
     </row>
     <row r="48" spans="2:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -1261,36 +1607,36 @@
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B49" s="10"/>
+      <c r="B49" s="11"/>
       <c r="C49" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B50" s="10"/>
+      <c r="B50" s="11"/>
       <c r="C50" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B51" s="10"/>
+      <c r="B51" s="11"/>
       <c r="C51" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B52" s="10"/>
+      <c r="B52" s="11"/>
       <c r="C52" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="54" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="7" t="s">
         <v>83</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -1298,7 +1644,7 @@
       </c>
     </row>
     <row r="55" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -1306,7 +1652,7 @@
       </c>
     </row>
     <row r="56" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -1314,7 +1660,7 @@
       </c>
     </row>
     <row r="57" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="7" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -1322,7 +1668,7 @@
       </c>
     </row>
     <row r="58" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="7" t="s">
         <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -1330,7 +1676,7 @@
       </c>
     </row>
     <row r="59" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="7" t="s">
         <v>95</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -1338,7 +1684,7 @@
       </c>
     </row>
     <row r="60" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="7" t="s">
         <v>92</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -1346,7 +1692,7 @@
       </c>
     </row>
     <row r="61" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="7" t="s">
         <v>89</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -1354,7 +1700,7 @@
       </c>
     </row>
     <row r="62" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="7" t="s">
         <v>87</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -1362,7 +1708,7 @@
       </c>
     </row>
     <row r="63" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="7" t="s">
         <v>93</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -1370,7 +1716,7 @@
       </c>
     </row>
     <row r="64" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="7" t="s">
         <v>93</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -1378,7 +1724,7 @@
       </c>
     </row>
     <row r="65" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="7" t="s">
         <v>93</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -1386,7 +1732,7 @@
       </c>
     </row>
     <row r="66" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="7" t="s">
         <v>94</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -1394,7 +1740,7 @@
       </c>
     </row>
     <row r="67" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="7" t="s">
         <v>84</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -1402,7 +1748,7 @@
       </c>
     </row>
     <row r="68" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="7" t="s">
         <v>88</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -1410,63 +1756,436 @@
       </c>
     </row>
     <row r="69" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B70" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C70" s="1" t="s">
+    <row r="71" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B71" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C71" s="1" t="s">
+    <row r="72" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B72" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B73" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C72" s="1" t="s">
+    <row r="74" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B74" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C73" s="1" t="s">
+    <row r="75" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B75" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C74" s="1" t="s">
+    <row r="76" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B76" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C75" s="1" t="s">
+    <row r="77" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B77" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C76" s="1" t="s">
+    <row r="78" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B78" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B79" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C77" s="1" t="s">
+    <row r="80" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B80" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C78" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C79" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C80" s="1" t="s">
-        <v>107</v>
+    <row r="81" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B81" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B82" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B83" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B84" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B85" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B86" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B87" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B88" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B89" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B90" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B91" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B92" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B93" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B94" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B95" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B96" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B97" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B98" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B99" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B100" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B101" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B102" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B103" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B104" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B105" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B106" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B107" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B108" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B109" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B110" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B111" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B112" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B113" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B114" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B115" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B116" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B117" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B118" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B119" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B120" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B121" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B122" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B123" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="B124" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/作文.xlsx
+++ b/作文.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeziyang/Desktop/德语/Deutsch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE6C960-B52E-7948-84A0-18FD4084F361}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2ADB9C-BAC4-704B-A9C8-1F0D3873916C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="229">
   <si>
     <t>ZH</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -833,12 +833,77 @@
   <si>
     <t>selbstredend</t>
   </si>
+  <si>
+    <t>相反</t>
+  </si>
+  <si>
+    <t>dagegen</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>hingegen</t>
+  </si>
+  <si>
+    <t>部分</t>
+  </si>
+  <si>
+    <t>teilweise</t>
+  </si>
+  <si>
+    <t>长期</t>
+  </si>
+  <si>
+    <t>langfristig</t>
+  </si>
+  <si>
+    <t>短期</t>
+  </si>
+  <si>
+    <t>kurzfristig</t>
+  </si>
+  <si>
+    <t>中期</t>
+  </si>
+  <si>
+    <t>mittelfristig</t>
+  </si>
+  <si>
+    <t>到目前为止</t>
+  </si>
+  <si>
+    <t>bislang</t>
+  </si>
+  <si>
+    <t>首次；第一次</t>
+  </si>
+  <si>
+    <t>erstmals</t>
+  </si>
+  <si>
+    <t>长期以来</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>seit Langem</t>
+  </si>
+  <si>
+    <t>起初；开始的时候</t>
+  </si>
+  <si>
+    <t>anfangs</t>
+  </si>
+  <si>
+    <t>随时</t>
+  </si>
+  <si>
+    <t>jederzeit</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -886,6 +951,13 @@
       <name val="Consolas"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -916,7 +988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -929,9 +1001,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -944,17 +1013,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1235,10 +1310,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
@@ -1308,6 +1383,126 @@
       </c>
       <c r="C7" s="1" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -1332,7 +1527,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1340,49 +1535,49 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="19">
-      <c r="A2" s="10"/>
+      <c r="A2" s="21"/>
       <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="19">
-      <c r="A3" s="10"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="19">
-      <c r="A4" s="10"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="19">
-      <c r="A5" s="10"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="19">
-      <c r="A6" s="10"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="19">
-      <c r="A7" s="10"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="19">
-      <c r="A8" s="10"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="19">
-      <c r="A9" s="10"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
@@ -1396,18 +1591,18 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="19">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="19">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1470,18 +1665,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="19">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1725,7 +1920,7 @@
       <c r="A1" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>199</v>
       </c>
     </row>
@@ -1733,7 +1928,7 @@
       <c r="A2" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>201</v>
       </c>
     </row>
@@ -1741,7 +1936,7 @@
       <c r="A3" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>203</v>
       </c>
     </row>
@@ -1749,7 +1944,7 @@
       <c r="A4" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>204</v>
       </c>
     </row>
@@ -1757,7 +1952,7 @@
       <c r="A5" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>206</v>
       </c>
     </row>
@@ -1765,7 +1960,7 @@
       <c r="A6" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>207</v>
       </c>
     </row>
@@ -1779,7 +1974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDE268B-5078-4D42-91E7-4C3D031C1D7B}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -1794,7 +1989,7 @@
       <c r="A1" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>178</v>
       </c>
     </row>
@@ -1802,7 +1997,7 @@
       <c r="A2" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>180</v>
       </c>
     </row>
@@ -1810,7 +2005,7 @@
       <c r="A3" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>182</v>
       </c>
     </row>
@@ -1818,7 +2013,7 @@
       <c r="A4" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>184</v>
       </c>
     </row>
@@ -1826,7 +2021,7 @@
       <c r="A5" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1834,7 +2029,7 @@
       <c r="A6" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1842,7 +2037,7 @@
       <c r="A7" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>189</v>
       </c>
     </row>
@@ -1850,7 +2045,7 @@
       <c r="A8" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>191</v>
       </c>
     </row>
@@ -1858,7 +2053,7 @@
       <c r="A9" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>193</v>
       </c>
     </row>
@@ -1866,7 +2061,7 @@
       <c r="A10" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>194</v>
       </c>
     </row>
@@ -1874,7 +2069,7 @@
       <c r="A11" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>196</v>
       </c>
     </row>
@@ -1882,7 +2077,7 @@
       <c r="A12" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>197</v>
       </c>
     </row>
@@ -1910,7 +2105,7 @@
       <c r="A1" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1918,7 +2113,7 @@
       <c r="A2" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1926,7 +2121,7 @@
       <c r="A3" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1934,7 +2129,7 @@
       <c r="A4" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1942,7 +2137,7 @@
       <c r="A5" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>158</v>
       </c>
     </row>
@@ -1950,7 +2145,7 @@
       <c r="A6" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>160</v>
       </c>
     </row>
@@ -1958,7 +2153,7 @@
       <c r="A7" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>162</v>
       </c>
     </row>
@@ -1966,7 +2161,7 @@
       <c r="A8" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1974,7 +2169,7 @@
       <c r="A9" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1982,7 +2177,7 @@
       <c r="A10" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1990,7 +2185,7 @@
       <c r="A11" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1998,7 +2193,7 @@
       <c r="A12" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2006,7 +2201,7 @@
       <c r="A13" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="14" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2014,15 +2209,15 @@
       <c r="A14" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="14" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="21" customFormat="1" ht="19">
-      <c r="A15" s="19" t="s">
+    <row r="15" spans="1:2" s="18" customFormat="1" ht="19">
+      <c r="A15" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="17" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2043,7 +2238,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="19">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -2079,34 +2274,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="19">
-      <c r="A2" s="17"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="14" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="19">
-      <c r="A3" s="17"/>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="14" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="19">
-      <c r="A4" s="17"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="14" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="19">
-      <c r="A5" s="17"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="14" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2133,70 +2328,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="19">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="14" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="19">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="14" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="19">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="14" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="19">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="14" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="19">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="14" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="19">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="14" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="19">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="14" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="19">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="14" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="19">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="14" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="19">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="14" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2223,7 +2418,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -2231,61 +2426,61 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="19">
-      <c r="A2" s="10"/>
+      <c r="A2" s="21"/>
       <c r="B2" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="19">
-      <c r="A3" s="10"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="19">
-      <c r="A4" s="10"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="19">
-      <c r="A5" s="10"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="19">
-      <c r="A6" s="10"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="19">
-      <c r="A7" s="10"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="19">
-      <c r="A8" s="10"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="19">
-      <c r="A9" s="10"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="19">
-      <c r="A10" s="10"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="19">
-      <c r="A11" s="10"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="4" t="s">
         <v>42</v>
       </c>
@@ -2314,15 +2509,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="19">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>117</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2330,7 +2525,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="19">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>118</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2338,7 +2533,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="19">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>119</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2346,7 +2541,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="19">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>120</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2354,7 +2549,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="19">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>121</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2370,7 +2565,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="19">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>121</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2398,10 +2593,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>112</v>
       </c>
     </row>

--- a/作文.xlsx
+++ b/作文.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeziyang/Desktop/德语/Deutsch/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\德语\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2ADB9C-BAC4-704B-A9C8-1F0D3873916C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C12BC5-BA07-4091-93C8-EE87E5AE64E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="809" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="当然，显而易见" sheetId="14" r:id="rId2"/>
-    <sheet name="多种多样" sheetId="13" r:id="rId3"/>
-    <sheet name="重要性" sheetId="12" r:id="rId4"/>
-    <sheet name="发生" sheetId="11" r:id="rId5"/>
-    <sheet name="所以" sheetId="10" r:id="rId6"/>
-    <sheet name="大概" sheetId="9" r:id="rId7"/>
-    <sheet name="持续，一直" sheetId="7" r:id="rId8"/>
-    <sheet name="非常，尤其" sheetId="6" r:id="rId9"/>
-    <sheet name="目前，现在" sheetId="4" r:id="rId10"/>
-    <sheet name="当时" sheetId="5" r:id="rId11"/>
-    <sheet name="逐渐" sheetId="8" r:id="rId12"/>
-    <sheet name="除此之外" sheetId="3" r:id="rId13"/>
-    <sheet name="接下来，然后" sheetId="2" r:id="rId14"/>
+    <sheet name="句型" sheetId="15" r:id="rId2"/>
+    <sheet name="当然，显而易见" sheetId="14" r:id="rId3"/>
+    <sheet name="多种多样" sheetId="13" r:id="rId4"/>
+    <sheet name="重要性" sheetId="12" r:id="rId5"/>
+    <sheet name="发生" sheetId="11" r:id="rId6"/>
+    <sheet name="所以" sheetId="10" r:id="rId7"/>
+    <sheet name="大概" sheetId="9" r:id="rId8"/>
+    <sheet name="持续，一直" sheetId="7" r:id="rId9"/>
+    <sheet name="非常，尤其" sheetId="6" r:id="rId10"/>
+    <sheet name="目前，现在" sheetId="4" r:id="rId11"/>
+    <sheet name="当时" sheetId="5" r:id="rId12"/>
+    <sheet name="逐渐" sheetId="8" r:id="rId13"/>
+    <sheet name="除此之外" sheetId="3" r:id="rId14"/>
+    <sheet name="接下来，然后" sheetId="2" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="262">
   <si>
     <t>ZH</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -898,12 +899,289 @@
   <si>
     <t>jederzeit</t>
   </si>
+  <si>
+    <t>Die Zahlen weisen eine immer steigende Tendenz auf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Während sich die Zahlen von..bis..verdreifachten(von A auf B), verlangsamte sich der Zuwachs von..bis..(von C auf D) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jeweils auf Platz 1,2,3 mit 10%,20%,30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>描写趋势：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>描写数值变化</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数字列举</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> jeweils</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鉴于…情况</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> angesichts</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angesichts dieser Hochkonjunktur hört man noch zwei Stimmen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>越…，越…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> je.. Desto..</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>je mehr Verantowortung man tragen sollte,desto man mehr Theorien benötigt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达自己观点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aus meiner Sicht</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除非es sei denn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ich kann nicht es repartrieren,es sei denn,dass ich die Gerät habe.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前提是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>voraussetzen</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ich kann es repartrieren,voraussetzen,dass ich die Gerät habe.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wenn,falls,sofern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件状语,如果假如</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二虚，好像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>als ob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无论</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>..</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，还是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.. Ob oder</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ob er will oder nicht,er muss den Schaden ersetzen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倍数对比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A hat sich gegenüber B verdoppelt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对比连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Im Verlgeich yu A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. Verleichen mit A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. Im Gegensatz(Gegenteil) zu A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. Im Unterschied zu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对立着</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>entgegenstehen</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Die steigende Tendenz von A steht der Abnahme von B in gleichen Zeitraum entgegen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A beträgt der Anteil von B deutlich niedriger als der Durchschnittswert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -988,7 +1266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1018,6 +1296,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1027,8 +1308,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1312,19 +1599,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="1" customWidth="1"/>
-    <col min="3" max="3" width="56.1640625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="56.109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1335,7 +1622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1344,7 +1631,7 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1353,7 +1640,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
@@ -1361,7 +1648,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>44</v>
       </c>
@@ -1369,7 +1656,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>45</v>
       </c>
@@ -1377,7 +1664,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>47</v>
       </c>
@@ -1385,7 +1672,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B8" s="13" t="s">
         <v>107</v>
       </c>
@@ -1393,7 +1680,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B9" s="13" t="s">
         <v>109</v>
       </c>
@@ -1401,7 +1688,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B10" s="13" t="s">
         <v>208</v>
       </c>
@@ -1409,7 +1696,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B11" s="13" t="s">
         <v>208</v>
       </c>
@@ -1417,7 +1704,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12" s="13" t="s">
         <v>211</v>
       </c>
@@ -1425,7 +1712,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" s="13" t="s">
         <v>125</v>
       </c>
@@ -1433,7 +1720,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" s="13" t="s">
         <v>127</v>
       </c>
@@ -1441,7 +1728,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" s="13" t="s">
         <v>213</v>
       </c>
@@ -1449,7 +1736,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B16" s="13" t="s">
         <v>215</v>
       </c>
@@ -1457,7 +1744,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="13" t="s">
         <v>217</v>
       </c>
@@ -1465,7 +1752,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" s="13" t="s">
         <v>219</v>
       </c>
@@ -1473,7 +1760,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" s="13" t="s">
         <v>221</v>
       </c>
@@ -1481,15 +1768,15 @@
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="22" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20" s="19" t="s">
         <v>223</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21" s="13" t="s">
         <v>225</v>
       </c>
@@ -1497,7 +1784,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" s="13" t="s">
         <v>227</v>
       </c>
@@ -1513,6 +1800,130 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD0C097-B0B9-8349-B641-AD0779EB7AF0}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0587A4-E822-934A-898B-917A509081E1}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -1520,69 +1931,69 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19">
-      <c r="A2" s="21"/>
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="22"/>
       <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19">
-      <c r="A3" s="21"/>
+    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="22"/>
       <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19">
-      <c r="A4" s="21"/>
+    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="22"/>
       <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19">
-      <c r="A5" s="21"/>
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="22"/>
       <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19">
-      <c r="A6" s="21"/>
+    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="22"/>
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="19">
-      <c r="A7" s="21"/>
+    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="22"/>
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19">
-      <c r="A8" s="21"/>
+    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="22"/>
       <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="19">
-      <c r="A9" s="21"/>
+    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="22"/>
       <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19">
+    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>113</v>
       </c>
@@ -1590,7 +2001,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="19">
+    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>129</v>
       </c>
@@ -1598,7 +2009,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19">
+    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>129</v>
       </c>
@@ -1615,7 +2026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FFA444-B5BE-7546-AB0C-77E2721A9052}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1623,13 +2034,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>107</v>
       </c>
@@ -1637,7 +2048,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19">
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>109</v>
       </c>
@@ -1651,7 +2062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F8EEEE-716B-4045-9E57-B48F58746BA8}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1659,12 +2070,12 @@
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>125</v>
       </c>
@@ -1672,7 +2083,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19">
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>127</v>
       </c>
@@ -1686,7 +2097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF62691-B09E-2B4E-A78A-2909A11AA75F}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -1694,13 +2105,13 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19">
+    <row r="1" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>92</v>
       </c>
@@ -1708,7 +2119,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19">
+    <row r="2" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>91</v>
       </c>
@@ -1716,7 +2127,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19">
+    <row r="3" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>91</v>
       </c>
@@ -1724,7 +2135,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19">
+    <row r="4" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>96</v>
       </c>
@@ -1732,7 +2143,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19">
+    <row r="5" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>98</v>
       </c>
@@ -1740,7 +2151,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19">
+    <row r="6" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>91</v>
       </c>
@@ -1748,7 +2159,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="19">
+    <row r="7" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>91</v>
       </c>
@@ -1756,7 +2167,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19">
+    <row r="8" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>91</v>
       </c>
@@ -1764,7 +2175,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="19">
+    <row r="9" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>103</v>
       </c>
@@ -1772,7 +2183,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19">
+    <row r="10" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>91</v>
       </c>
@@ -1780,7 +2191,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="19">
+    <row r="11" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>91</v>
       </c>
@@ -1788,7 +2199,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19">
+    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>91</v>
       </c>
@@ -1802,7 +2213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C906E5-98EF-D041-8185-DFE89D8412CA}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -1810,13 +2221,13 @@
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19">
+    <row r="1" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>57</v>
       </c>
@@ -1824,7 +2235,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19">
+    <row r="2" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>58</v>
       </c>
@@ -1832,7 +2243,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19">
+    <row r="3" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>59</v>
       </c>
@@ -1840,7 +2251,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19">
+    <row r="4" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>60</v>
       </c>
@@ -1848,7 +2259,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19">
+    <row r="5" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>60</v>
       </c>
@@ -1856,7 +2267,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19">
+    <row r="6" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>61</v>
       </c>
@@ -1864,7 +2275,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="19">
+    <row r="7" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>62</v>
       </c>
@@ -1872,7 +2283,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19">
+    <row r="8" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>58</v>
       </c>
@@ -1880,7 +2291,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="19">
+    <row r="9" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>64</v>
       </c>
@@ -1888,7 +2299,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19">
+    <row r="10" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>65</v>
       </c>
@@ -1903,6 +2314,171 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8D3107-C1B9-43F6-954D-D4F95DBC5576}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="106" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="24"/>
+    </row>
+    <row r="4" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B15" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B16" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+    </row>
+    <row r="19" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B18:D18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96BD0B3A-41A3-B548-B11A-B495293C3903}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -1910,13 +2486,13 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19">
+    <row r="1" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>198</v>
       </c>
@@ -1924,7 +2500,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19">
+    <row r="2" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>200</v>
       </c>
@@ -1932,7 +2508,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19">
+    <row r="3" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>202</v>
       </c>
@@ -1940,7 +2516,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19">
+    <row r="4" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>202</v>
       </c>
@@ -1948,7 +2524,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19">
+    <row r="5" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>205</v>
       </c>
@@ -1956,7 +2532,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19">
+    <row r="6" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>200</v>
       </c>
@@ -1970,7 +2546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDE268B-5078-4D42-91E7-4C3D031C1D7B}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -1978,14 +2554,14 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="6"/>
+    <col min="1" max="1" width="13.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.77734375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19">
+    <row r="1" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>177</v>
       </c>
@@ -1993,7 +2569,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19">
+    <row r="2" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>179</v>
       </c>
@@ -2001,7 +2577,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19">
+    <row r="3" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>181</v>
       </c>
@@ -2009,7 +2585,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19">
+    <row r="4" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>183</v>
       </c>
@@ -2017,7 +2593,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19">
+    <row r="5" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>177</v>
       </c>
@@ -2025,7 +2601,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19">
+    <row r="6" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>186</v>
       </c>
@@ -2033,7 +2609,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="19">
+    <row r="7" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>188</v>
       </c>
@@ -2041,7 +2617,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19">
+    <row r="8" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>190</v>
       </c>
@@ -2049,7 +2625,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="19">
+    <row r="9" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>192</v>
       </c>
@@ -2057,7 +2633,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19">
+    <row r="10" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>192</v>
       </c>
@@ -2065,7 +2641,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="19">
+    <row r="11" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>195</v>
       </c>
@@ -2073,7 +2649,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19">
+    <row r="12" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>195</v>
       </c>
@@ -2087,7 +2663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12EB2D4C-D5EA-3541-B0AE-43B6ADEEB9ED}">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -2095,13 +2671,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19">
+    <row r="1" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>150</v>
       </c>
@@ -2109,7 +2685,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19">
+    <row r="2" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>152</v>
       </c>
@@ -2117,7 +2693,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19">
+    <row r="3" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>152</v>
       </c>
@@ -2125,7 +2701,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19">
+    <row r="4" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>155</v>
       </c>
@@ -2133,7 +2709,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19">
+    <row r="5" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>157</v>
       </c>
@@ -2141,7 +2717,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19">
+    <row r="6" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>159</v>
       </c>
@@ -2149,7 +2725,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="19">
+    <row r="7" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>161</v>
       </c>
@@ -2157,7 +2733,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19">
+    <row r="8" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>163</v>
       </c>
@@ -2165,7 +2741,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="19">
+    <row r="9" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>165</v>
       </c>
@@ -2173,7 +2749,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19">
+    <row r="10" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>167</v>
       </c>
@@ -2181,7 +2757,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="19">
+    <row r="11" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>167</v>
       </c>
@@ -2189,7 +2765,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19">
+    <row r="12" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>167</v>
       </c>
@@ -2197,7 +2773,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="19">
+    <row r="13" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>171</v>
       </c>
@@ -2205,7 +2781,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19">
+    <row r="14" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>173</v>
       </c>
@@ -2213,7 +2789,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="18" customFormat="1" ht="19">
+    <row r="15" spans="1:2" s="18" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
         <v>175</v>
       </c>
@@ -2221,7 +2797,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="19">
+    <row r="16" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>3</v>
       </c>
@@ -2229,7 +2805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="19">
+    <row r="17" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
@@ -2237,7 +2813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="19">
+    <row r="18" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
         <v>7</v>
       </c>
@@ -2245,7 +2821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="19">
+    <row r="19" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -2259,7 +2835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C816DA8B-470F-E743-B365-697327B02341}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -2267,40 +2843,40 @@
       <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
         <v>144</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19">
-      <c r="A2" s="19"/>
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="20"/>
       <c r="B2" s="14" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19">
-      <c r="A3" s="19"/>
+    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="20"/>
       <c r="B3" s="14" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19">
-      <c r="A4" s="19"/>
+    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="20"/>
       <c r="B4" s="14" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19">
-      <c r="A5" s="19"/>
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="20"/>
       <c r="B5" s="14" t="s">
         <v>149</v>
       </c>
@@ -2314,7 +2890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DBE28C-B090-E24A-8D1B-2BDFB2C7A718}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -2322,167 +2898,77 @@
       <selection sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
         <v>132</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19">
-      <c r="A2" s="20"/>
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="21"/>
       <c r="B2" s="14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19">
-      <c r="A3" s="20"/>
+    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="21"/>
       <c r="B3" s="14" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19">
-      <c r="A4" s="20"/>
+    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="21"/>
       <c r="B4" s="14" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19">
-      <c r="A5" s="20"/>
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="21"/>
       <c r="B5" s="14" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19">
-      <c r="A6" s="20"/>
+    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="21"/>
       <c r="B6" s="14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="19">
-      <c r="A7" s="20"/>
+    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="21"/>
       <c r="B7" s="14" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19">
-      <c r="A8" s="20"/>
+    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="21"/>
       <c r="B8" s="14" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="19">
-      <c r="A9" s="20"/>
+    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="21"/>
       <c r="B9" s="14" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19">
-      <c r="A10" s="20"/>
+    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="21"/>
       <c r="B10" s="14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="19">
-      <c r="A11" s="20"/>
+    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="21"/>
       <c r="B11" s="14" t="s">
         <v>143</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:A11"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7A06DE-6740-D843-99B4-29E167DAB433}">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="19">
-      <c r="A1" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="19">
-      <c r="A2" s="21"/>
-      <c r="B2" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="19">
-      <c r="A3" s="21"/>
-      <c r="B3" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="19">
-      <c r="A4" s="21"/>
-      <c r="B4" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="19">
-      <c r="A5" s="21"/>
-      <c r="B5" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="19">
-      <c r="A6" s="21"/>
-      <c r="B6" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="19">
-      <c r="A7" s="21"/>
-      <c r="B7" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="19">
-      <c r="A8" s="21"/>
-      <c r="B8" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="19">
-      <c r="A9" s="21"/>
-      <c r="B9" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="19">
-      <c r="A10" s="21"/>
-      <c r="B10" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="19">
-      <c r="A11" s="21"/>
-      <c r="B11" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2495,6 +2981,96 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7A06DE-6740-D843-99B4-29E167DAB433}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="22"/>
+      <c r="B2" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="22"/>
+      <c r="B3" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="22"/>
+      <c r="B4" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="22"/>
+      <c r="B5" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="22"/>
+      <c r="B6" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="22"/>
+      <c r="B7" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="22"/>
+      <c r="B8" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="22"/>
+      <c r="B9" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="22"/>
+      <c r="B10" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="22"/>
+      <c r="B11" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE079D3A-051D-BA4E-87FA-1F002C238096}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -2502,13 +3078,13 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>115</v>
       </c>
@@ -2516,7 +3092,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19">
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>117</v>
       </c>
@@ -2524,7 +3100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19">
+    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>118</v>
       </c>
@@ -2532,7 +3108,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19">
+    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>119</v>
       </c>
@@ -2540,7 +3116,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19">
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>120</v>
       </c>
@@ -2548,7 +3124,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19">
+    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>121</v>
       </c>
@@ -2556,7 +3132,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="19">
+    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>122</v>
       </c>
@@ -2564,136 +3140,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19">
+    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>121</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>124</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD0C097-B0B9-8349-B641-AD0779EB7AF0}">
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="28.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="19">
-      <c r="A1" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="19">
-      <c r="A2" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="19">
-      <c r="A3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="19">
-      <c r="A4" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="19">
-      <c r="A5" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="19">
-      <c r="A6" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="19">
-      <c r="A7" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="19">
-      <c r="A8" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="19">
-      <c r="A9" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="19">
-      <c r="A10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="19">
-      <c r="A11" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="19">
-      <c r="A12" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="19">
-      <c r="A13" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/作文.xlsx
+++ b/作文.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\德语\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C12BC5-BA07-4091-93C8-EE87E5AE64E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C7D04D-15E0-40BC-8A7A-D8636C35D621}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="809" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="809" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="267">
   <si>
     <t>ZH</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -487,9 +487,6 @@
     <t>außerdem</t>
   </si>
   <si>
-    <t>darüber hinaus</t>
-  </si>
-  <si>
     <t>ansonsten</t>
   </si>
   <si>
@@ -1174,6 +1171,30 @@
   </si>
   <si>
     <t>A beträgt der Anteil von B deutlich niedriger als der Durchschnittswert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明显的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offensichtlich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deutlich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显然的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>darüber hinaus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1237,12 +1258,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1266,7 +1293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1292,12 +1319,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1308,14 +1343,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1674,122 +1711,122 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B8" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>107</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>109</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B10" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>208</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B11" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>211</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>125</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>127</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>213</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B16" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>215</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>217</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>219</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="C19" s="13" t="s">
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20" s="18" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B20" s="19" t="s">
+      <c r="C20" s="13" t="s">
         <v>223</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>225</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>227</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -1804,7 +1841,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E11" sqref="E11:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1815,10 +1852,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
@@ -1833,7 +1870,7 @@
       <c r="A3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="28" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1865,7 +1902,7 @@
       <c r="A7" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="28" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1873,7 +1910,7 @@
       <c r="A8" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="28" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1928,7 +1965,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1938,7 +1975,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1946,75 +1983,75 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="22"/>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="28" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="22"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="28" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="28" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="22"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>129</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2042,18 +2079,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2067,7 +2104,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2077,18 +2114,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>125</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>127</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2102,7 +2139,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2123,32 +2160,32 @@
       <c r="A2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>94</v>
+      <c r="B2" s="26" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>95</v>
+      <c r="B3" s="26" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>96</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
@@ -2156,7 +2193,7 @@
         <v>91</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
@@ -2164,7 +2201,7 @@
         <v>91</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
@@ -2172,15 +2209,15 @@
         <v>91</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
@@ -2188,7 +2225,7 @@
         <v>91</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
@@ -2196,7 +2233,7 @@
         <v>91</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -2215,10 +2252,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C906E5-98EF-D041-8185-DFE89D8412CA}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2231,7 +2268,7 @@
       <c r="A1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="28" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2247,7 +2284,7 @@
       <c r="A3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="28" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2271,7 +2308,7 @@
       <c r="A6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="28" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2295,7 +2332,7 @@
       <c r="A9" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2305,6 +2342,11 @@
       </c>
       <c r="B10" s="1" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -2317,155 +2359,155 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8D3107-C1B9-43F6-954D-D4F95DBC5576}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="106" style="1" customWidth="1"/>
+    <col min="2" max="2" width="106.109375" style="1" customWidth="1"/>
     <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>230</v>
+        <v>232</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="24"/>
+      <c r="B3" s="20"/>
     </row>
     <row r="4" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>251</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="B18" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
     </row>
     <row r="19" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -2480,64 +2522,80 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96BD0B3A-41A3-B548-B11A-B495293C3903}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="14" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A2" s="25" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="B2" s="26" t="s">
         <v>200</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>202</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A5" s="25" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="B5" s="26" t="s">
         <v>205</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A7" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -2551,7 +2609,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2563,98 +2621,98 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>177</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>179</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>181</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="14" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A5" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="B6" s="14" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A7" s="25" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="B7" s="26" t="s">
         <v>188</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>190</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>192</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A11" s="25" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="B11" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="B11" s="14" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A12" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="26" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2668,7 +2726,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2679,153 +2737,153 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>150</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>152</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="14" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A5" s="25" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="B5" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B5" s="14" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A6" s="25" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="B6" s="26" t="s">
         <v>159</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>161</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="B8" s="14" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A9" s="25" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="B9" s="26" t="s">
         <v>165</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>167</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>171</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="B14" s="14" t="s">
+    </row>
+    <row r="15" spans="1:2" s="17" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A15" s="15" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" s="18" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
+      <c r="B15" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>176</v>
-      </c>
     </row>
     <row r="16" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="28" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="28" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="28" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="28" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2840,45 +2898,45 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="14" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="22"/>
+      <c r="B2" s="26" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="20"/>
-      <c r="B2" s="14" t="s">
+    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="22"/>
+      <c r="B3" s="14" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
-      <c r="B3" s="14" t="s">
+    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="22"/>
+      <c r="B4" s="14" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
-      <c r="B4" s="14" t="s">
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="22"/>
+      <c r="B5" s="14" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
-      <c r="B5" s="14" t="s">
-        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2895,7 +2953,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2904,71 +2962,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="14" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="23"/>
+      <c r="B2" s="14" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="14" t="s">
+    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="23"/>
+      <c r="B3" s="26" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
-      <c r="B3" s="14" t="s">
+    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="23"/>
+      <c r="B4" s="26" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
-      <c r="B4" s="14" t="s">
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="23"/>
+      <c r="B5" s="14" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
-      <c r="B5" s="14" t="s">
+    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="23"/>
+      <c r="B6" s="14" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
-      <c r="B6" s="14" t="s">
+    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="23"/>
+      <c r="B7" s="14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
-      <c r="B7" s="14" t="s">
+    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="23"/>
+      <c r="B8" s="14" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="21"/>
-      <c r="B8" s="14" t="s">
+    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="23"/>
+      <c r="B9" s="14" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
-      <c r="B9" s="14" t="s">
+    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="23"/>
+      <c r="B10" s="26" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
-      <c r="B10" s="14" t="s">
+    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="23"/>
+      <c r="B11" s="26" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
-      <c r="B11" s="14" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2985,7 +3043,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2994,70 +3052,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="28" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="22"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="28" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="22"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="28" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="22"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="24"/>
+      <c r="B11" s="28" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3075,7 +3133,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3086,15 +3144,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>115</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>15</v>
@@ -3102,50 +3160,50 @@
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="28" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="B7" s="31" t="s">
         <v>122</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
